--- a/treport_example/templates/treport_example.xlsx
+++ b/treport_example/templates/treport_example.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergejnovikov/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergejnovikov/PycharmProjects/treport/treport_example/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FCB401-C15E-D14E-8514-6E480583A8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B36E5EC-AF6A-7143-A299-BBE6B589E6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33500" yWindow="2200" windowWidth="27640" windowHeight="16400" xr2:uid="{A0699F74-3BB0-B14C-A22C-CF2C41A7FC01}"/>
   </bookViews>
   <sheets>
     <sheet name="Список документов" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Список документов за период</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Номер документа</t>
   </si>
@@ -54,6 +51,12 @@
   </si>
   <si>
     <t>5=4/3</t>
+  </si>
+  <si>
+    <t>по</t>
+  </si>
+  <si>
+    <t>Список документов за период c</t>
   </si>
 </sst>
 </file>
@@ -84,7 +87,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,11 +110,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -133,6 +145,15 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,39 +473,44 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -501,7 +527,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
